--- a/data/trans_bre/MCS12_SP_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R2-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.301238199897719</v>
+        <v>4.382157050335637</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.026080629404992</v>
+        <v>6.904064460289618</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.909608103907757</v>
+        <v>3.770905204112427</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.524539842557047</v>
+        <v>-2.11222821284505</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.09165375999633205</v>
+        <v>0.1305351049200569</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1785240290386786</v>
+        <v>0.1766697784461896</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1050516920649132</v>
+        <v>0.1060645647522591</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.06591637979229202</v>
+        <v>-0.06326367691774992</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.102471169694</v>
+        <v>16.83027163565911</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>20.19839876793227</v>
+        <v>20.75717313067975</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.9402293067032</v>
+        <v>17.54404857142619</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.8876998068119</v>
+        <v>17.38433010134565</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5378041054050401</v>
+        <v>0.5849117418681553</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.624707786407006</v>
+        <v>0.6573162671293422</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5861017158517733</v>
+        <v>0.5909229032002744</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.751065434686742</v>
+        <v>0.711190942334614</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.323706892749545</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6.219774268953526</v>
+        <v>6.219774268953521</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4111231303659354</v>
@@ -749,7 +749,7 @@
         <v>0.07241644742481601</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1817757581804662</v>
+        <v>0.181775758180466</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.674087412618922</v>
+        <v>8.769619264167535</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.209274311080842</v>
+        <v>5.492233403531141</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.642950221810434</v>
+        <v>-2.73310590226655</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.7879530007166704</v>
+        <v>-1.295785411480579</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2295323406086088</v>
+        <v>0.2398420203665274</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1113797032757299</v>
+        <v>0.1180087124844078</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.05310071415519859</v>
+        <v>-0.05574034682542552</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.02065559885278262</v>
+        <v>-0.04064824839710178</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>19.30858749420021</v>
+        <v>19.88083250730818</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.25670609453694</v>
+        <v>17.00283128664701</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.137708844214323</v>
+        <v>9.006491430127012</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13.34775074315688</v>
+        <v>13.77335018135079</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6103662517279912</v>
+        <v>0.6205913748180504</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3912600491917064</v>
+        <v>0.4105340574167901</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.215609719447966</v>
+        <v>0.2045525836155177</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4489662370139742</v>
+        <v>0.4539918758035145</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.490199795114738</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9.284324814766553</v>
+        <v>9.284324814766565</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3321910534284392</v>
@@ -849,7 +849,7 @@
         <v>0.03097926560819185</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2567697471627159</v>
+        <v>0.2567697471627162</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.97692862415941</v>
+        <v>8.784960712342194</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.327915928187065</v>
+        <v>6.867554530049914</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.518517506619222</v>
+        <v>-3.842860026689747</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.714792970784774</v>
+        <v>4.204615367522689</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1896055101470176</v>
+        <v>0.1881383838139504</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1352192573726719</v>
+        <v>0.1306176038699091</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.06865551741757929</v>
+        <v>-0.07533775523280112</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.09572516885053894</v>
+        <v>0.109285805128002</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>20.46056671889129</v>
+        <v>20.33953072196523</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.89445816765221</v>
+        <v>17.86583440781107</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.39932728411851</v>
+        <v>7.507160397701437</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.28077168109806</v>
+        <v>14.74788777026954</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5127019095635506</v>
+        <v>0.496467123171951</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3736160392891604</v>
+        <v>0.3797410381993598</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.162498565335697</v>
+        <v>0.1676004668401989</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4337730415458046</v>
+        <v>0.4536281208721561</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>7.302172042303734</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8.59163675977892</v>
+        <v>8.591636759778909</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3805941093510167</v>
@@ -949,7 +949,7 @@
         <v>0.1370681095578961</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1978542651301419</v>
+        <v>0.1978542651301416</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>11.07517049370849</v>
+        <v>10.60882996062749</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.393916071375677</v>
+        <v>4.021848022133352</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.665247191839955</v>
+        <v>1.329172057664848</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.332690559002633</v>
+        <v>3.767967988464842</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2285986359937902</v>
+        <v>0.2153621549193247</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08094471784522705</v>
+        <v>0.07465038022643258</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03096791522685352</v>
+        <v>0.02380378413310325</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.07339250567023131</v>
+        <v>0.08016600003518554</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>23.63593496526785</v>
+        <v>23.13315359813119</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.56826358804253</v>
+        <v>15.94959794079509</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13.226944619014</v>
+        <v>12.74317743332681</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13.38177764512012</v>
+        <v>13.37874259213647</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5662368325799798</v>
+        <v>0.5531953823102597</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3438003831129437</v>
+        <v>0.3114346405723422</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2676960634161313</v>
+        <v>0.2570944049133206</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3341352489619584</v>
+        <v>0.3331159521969073</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>10.06909874333337</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8.943658306428116</v>
+        <v>8.943658306428103</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05419148064816785</v>
@@ -1049,7 +1049,7 @@
         <v>0.1943693883113676</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.183086744357182</v>
+        <v>0.1830867443571818</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.473839732949936</v>
+        <v>-4.210936128014864</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.890777966167034</v>
+        <v>7.184992142680197</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.737059654068082</v>
+        <v>2.918009278854909</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.547100643256676</v>
+        <v>3.652549190021437</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.07528760128209913</v>
+        <v>-0.07097738299897947</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1164856984112506</v>
+        <v>0.1200278277926959</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04734705163540909</v>
+        <v>0.05320275522135452</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.08977318994709177</v>
+        <v>0.06959610926459796</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.503783973648449</v>
+        <v>9.931554352452599</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>20.49704901096033</v>
+        <v>20.8287692242579</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.52585659427936</v>
+        <v>16.0241806939106</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.2113711852676</v>
+        <v>14.07353971062146</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1801477101569212</v>
+        <v>0.1913602450776039</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4019318552421211</v>
+        <v>0.4081021070501486</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3406279319704568</v>
+        <v>0.3295654540602728</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3157408251888743</v>
+        <v>0.309349968363453</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>7.991733222374942</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7.343100922582408</v>
+        <v>7.343100922582418</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05504839955410123</v>
@@ -1149,7 +1149,7 @@
         <v>0.1575268939755128</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.151134399189982</v>
+        <v>0.1511343991899823</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-4.831123616276006</v>
+        <v>-4.529376969840598</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>7.303527529868766</v>
+        <v>5.65168290387841</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6260698426326078</v>
+        <v>0.3027391940125893</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.736653339626269</v>
+        <v>2.194375553147943</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.08155712000966027</v>
+        <v>-0.07677261400011194</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.129400503566523</v>
+        <v>0.09919951434139924</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01156909161795208</v>
+        <v>0.01035412868626473</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.0325354827870881</v>
+        <v>0.04418105879941366</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>10.60591007183036</v>
+        <v>10.86049433272713</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>21.82521151640004</v>
+        <v>21.40690995499097</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15.18057032215024</v>
+        <v>15.25577874297375</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12.70469016085001</v>
+        <v>12.82423110545827</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2156510795871115</v>
+        <v>0.2091582188603504</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4739563713007225</v>
+        <v>0.4557427462787293</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3294208595884768</v>
+        <v>0.3275191680801979</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2824543989943953</v>
+        <v>0.2823661546731643</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-12.50945242463749</v>
+        <v>-12.79092996716152</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.154026789730009</v>
+        <v>3.537087523104356</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.526815139195998</v>
+        <v>-2.790887127023964</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.095387461508448</v>
+        <v>2.258109957203878</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.210451993407697</v>
+        <v>-0.2128990877741476</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05172617179229242</v>
+        <v>0.05649467432082404</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.02508367930321801</v>
+        <v>-0.04749171308020148</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.0344244824243006</v>
+        <v>0.03572867418688885</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.848980276328662</v>
+        <v>4.470924377270294</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>19.65910650758668</v>
+        <v>19.30897293266765</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13.34126735816218</v>
+        <v>13.77186356871149</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14.06823016326575</v>
+        <v>14.95103444817431</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.09988289618302713</v>
+        <v>0.09247413744768254</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3777817052677585</v>
+        <v>0.373428100330451</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2657865596041193</v>
+        <v>0.2754590648996192</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2712673518625736</v>
+        <v>0.2869166867543637</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>6.689340601256877</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8.916159540194124</v>
+        <v>8.916159540194107</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2536280142677875</v>
@@ -1349,7 +1349,7 @@
         <v>0.1389227772130325</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.2130632260207484</v>
+        <v>0.213063226020748</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>8.496454864786944</v>
+        <v>8.27186963883392</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>10.44198655559807</v>
+        <v>10.45094321600539</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4.265131362918179</v>
+        <v>4.112293457390087</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6.381742684872338</v>
+        <v>6.370846888032639</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1920058099459528</v>
+        <v>0.1845962940528817</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2060325587077078</v>
+        <v>0.2084568939828933</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08506395884663068</v>
+        <v>0.08265335010452546</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1484498014621805</v>
+        <v>0.148037579957485</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>13.3513091884383</v>
+        <v>13.39761422977383</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>15.21120812748649</v>
+        <v>15.32279503468963</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>9.220400132376907</v>
+        <v>9.138957515115139</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>11.29268359351354</v>
+        <v>11.20964209321603</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3196240248528751</v>
+        <v>0.3200201187212331</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3188933761648428</v>
+        <v>0.3245198904802439</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.19553037846643</v>
+        <v>0.1954381134740267</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2813885915682004</v>
+        <v>0.2794918160215936</v>
       </c>
     </row>
     <row r="28">
